--- a/update_data/data/ecovacs/intention/修改 意图-回答.xlsx
+++ b/update_data/data/ecovacs/intention/修改 意图-回答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="9645" windowWidth="23265" windowHeight="3060"/>
+    <workbookView xWindow="-15" yWindow="9645" windowWidth="23265" windowHeight="3060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="地宝" sheetId="4" r:id="rId1"/>
@@ -67,6 +67,322 @@
   </si>
   <si>
     <r>
+      <t>旺宝给您推荐本店在售的沁宝A650。这款宝宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有独特的移动巡航技术，自主移动巡航；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>优化的空气动力循环系统，最大限度的净化空气；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4层环形一体化滤芯，杀菌过滤一步到位；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人性化语音提醒，贴心指导；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APP远程操作，智能预约，家在掌心净化无忧。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买扫地机器人</t>
+  </si>
+  <si>
+    <t>分支</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>实惠</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旺宝给您推荐新款的DD56，这款宝宝优点有点多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smart Move技术路径规划，避免重复;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝鲸清洁系统，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>漫威主题外观，钢铁侠主题设计，时尚潮流，新颖美观;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还有手机app远程操控，方便快捷。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问您是想要便宜点的还是性能高点的呀？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高配</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给您推荐DG36这款高级宝宝，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他突出特点就是能LDS扫描建立房屋户型图，所有房间有序清洁；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝鲸清洁系统，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过超声波探测，辨识地毯和地面，清洁吸力自动选择；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可通过APP实现在线升级，保持程序系统的最新状态，永不落伍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港港的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请到店里咨询，有店长大人为您做详细介绍哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DG716这款宝宝纤薄7点75厘米机身设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采用日本尼德科无刷电机，噪音小，使用寿命长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更有蓝鲸清洁系统，吸口吸灰，抹布湿拖，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Smart Move技术高效覆盖，打扫不重复;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吸口，滚刷互换功能，深度清洁使用，强效去灰。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>旺宝诚心</t>
     </r>
     <r>
@@ -107,7 +423,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>智能记忆功，好放好取；</t>
+      <t>智能记忆功能，好放好取；</t>
     </r>
     <r>
       <rPr>
@@ -139,322 +455,6 @@
       </rPr>
       <t xml:space="preserve">您可以在主界面点击搜索了解详情。
 </t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>旺宝给您推荐本店在售的沁宝A650。这款宝宝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有独特的移动巡航技术，自主移动巡航；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>优化的空气动力循环系统，最大限度的净化空气；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4层环形一体化滤芯，杀菌过滤一步到位；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人性化语音提醒，贴心指导；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>APP远程操作，智能预约，家在掌心净化无忧。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买扫地机器人</t>
-  </si>
-  <si>
-    <t>分支</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>实惠</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>旺宝给您推荐新款的DD56，这款宝宝优点有点多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smart Move技术路径规划，避免重复;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓝鲸清洁系统，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>漫威主题外观，钢铁侠主题设计，时尚潮流，新颖美观;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>还有手机app远程操控，方便快捷。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请问您是想要便宜点的还是性能高点的呀？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高配</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>给您推荐DG36这款高级宝宝，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>他突出特点就是能LDS扫描建立房屋户型图，所有房间有序清洁；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>蓝鲸清洁系统，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过超声波探测，辨识地毯和地面，清洁吸力自动选择；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>可通过APP实现在线升级，保持程序系统的最新状态，永不落伍。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>能力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>港港的。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二步</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲亲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请到店里咨询，有店长大人为您做详细介绍哦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DG716这款宝宝纤薄7点75厘米机身设计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>采用日本尼德科无刷电机，噪音小，使用寿命长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更有蓝鲸清洁系统，吸口吸灰，抹布湿拖，一站式清洁到位;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Smart Move技术高效覆盖，打扫不重复;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吸口，滚刷互换功能，深度清洁使用，强效去灰。</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -1052,21 +1052,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -1075,14 +1075,14 @@
     </row>
     <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1191,13 +1191,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
